--- a/data/Instances/InstancesS/outputS-8.xlsx
+++ b/data/Instances/InstancesS/outputS-8.xlsx
@@ -453,29 +453,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>11</t>
@@ -483,34 +483,34 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>21</t>
@@ -523,7 +523,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -553,137 +553,137 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>63</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
         </is>
       </c>
     </row>
@@ -694,9 +694,7 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -709,9 +707,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -765,7 +761,9 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -780,9 +778,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -805,9 +801,7 @@
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -815,27 +809,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -843,70 +825,40 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="n">
         <v>1</v>
@@ -915,110 +867,68 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1035,7 +945,9 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -1047,23 +959,17 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1073,22 +979,24 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1110,25 +1018,21 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1140,23 +1044,17 @@
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1211,7 +1109,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1240,23 +1138,17 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1269,9 +1161,7 @@
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1280,10 +1170,10 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1295,9 +1185,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1307,7 +1195,9 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1337,7 +1227,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1366,23 +1256,17 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
@@ -1395,21 +1279,19 @@
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1421,9 +1303,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1452,9 +1332,7 @@
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
@@ -1465,12 +1343,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1494,23 +1374,17 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -1523,20 +1397,16 @@
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1546,12 +1416,12 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1591,28 +1461,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1652,12 +1520,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1714,7 +1584,9 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1738,9 +1610,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
@@ -1763,9 +1633,7 @@
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1827,13 +1695,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1893,7 +1759,9 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1905,7 +1773,9 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -1915,25 +1785,21 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
@@ -1946,9 +1812,7 @@
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1957,9 +1821,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1972,9 +1834,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -2018,9 +1878,7 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -2030,12 +1888,12 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2078,110 +1936,56 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2215,25 +2019,17 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -2246,20 +2042,16 @@
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -2272,9 +2064,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2284,7 +2074,9 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2314,135 +2106,87 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2482,13 +2226,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2498,12 +2240,12 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2543,7 +2285,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2553,11 +2295,15 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -2572,9 +2318,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
@@ -2597,127 +2341,75 @@
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -2727,12 +2419,12 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2761,9 +2453,7 @@
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
@@ -2774,13 +2464,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -2788,16 +2476,14 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
@@ -2837,7 +2523,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2851,7 +2537,9 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2866,15 +2554,11 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
@@ -2893,82 +2577,128 @@
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1</v>
+      </c>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1</v>
+      </c>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
+      <c r="AX34" t="n">
+        <v>1</v>
+      </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2980,9 +2710,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
@@ -3022,73 +2750,119 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>1</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1</v>
+      </c>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
+      <c r="AD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>1</v>
+      </c>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AO36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
+      <c r="AX36" t="n">
+        <v>1</v>
+      </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -3110,7 +2884,9 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
@@ -3140,169 +2916,183 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1</v>
+      </c>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
       <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
+      <c r="AI38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
       <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
       <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
+      <c r="AX38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>1</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3312,51 +3102,49 @@
         <v>1</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
         <v>1</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>1</v>
-      </c>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
       <c r="AB40" t="n">
         <v>1</v>
       </c>
@@ -3364,160 +3152,118 @@
       <c r="AD40" t="n">
         <v>1</v>
       </c>
-      <c r="AE40" t="inlineStr"/>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
       <c r="AF40" t="n">
         <v>1</v>
       </c>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="n">
         <v>1</v>
       </c>
-      <c r="AL40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="n">
         <v>1</v>
       </c>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
+      <c r="AO40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3529,9 +3275,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -3560,9 +3304,7 @@
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
@@ -3573,30 +3315,26 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3606,7 +3344,9 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
@@ -3636,7 +3376,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -3650,7 +3390,9 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -3665,9 +3407,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
@@ -3677,9 +3417,7 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
@@ -3691,17 +3429,13 @@
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -3730,17 +3464,11 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
@@ -3759,20 +3487,16 @@
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -3785,9 +3509,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -3827,7 +3549,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3841,7 +3563,9 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3856,17 +3580,11 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
@@ -3885,35 +3603,33 @@
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
-      <c r="AY47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
@@ -3923,7 +3639,9 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -3953,28 +3671,28 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
@@ -4014,7 +3732,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -4031,9 +3749,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -4073,74 +3789,136 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1</v>
+      </c>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>1</v>
+      </c>
       <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
+      <c r="AO51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
       <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="inlineStr"/>
+      <c r="AX51" t="n">
+        <v>1</v>
+      </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>1</v>
@@ -4148,38 +3926,38 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
         <v>1</v>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>1</v>
       </c>
@@ -4187,29 +3965,27 @@
         <v>1</v>
       </c>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="n">
         <v>1</v>
       </c>
-      <c r="AL52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="n">
         <v>1</v>
       </c>
-      <c r="AN52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="n">
         <v>1</v>
       </c>
@@ -4218,133 +3994,83 @@
       </c>
       <c r="AQ52" t="inlineStr"/>
       <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
       <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1</v>
-      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4353,49 +4079,51 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
         <v>1</v>
       </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>1</v>
       </c>
@@ -4403,26 +4131,28 @@
         <v>1</v>
       </c>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
       <c r="AF54" t="n">
         <v>1</v>
       </c>
-      <c r="AG54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
         <v>1</v>
       </c>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="n">
         <v>1</v>
       </c>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>1</v>
+      </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="n">
         <v>1</v>
@@ -4432,89 +4162,89 @@
       </c>
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
+      <c r="X55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>1</v>
       </c>
-      <c r="AA55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
-      <c r="AC55" t="inlineStr"/>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
       <c r="AD55" t="n">
         <v>1</v>
       </c>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="n">
         <v>1</v>
       </c>
@@ -4522,9 +4252,7 @@
         <v>1</v>
       </c>
       <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="n">
         <v>1</v>
       </c>
@@ -4533,139 +4261,89 @@
         <v>1</v>
       </c>
       <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr"/>
+      <c r="AO55" t="n">
+        <v>1</v>
+      </c>
       <c r="AP55" t="n">
         <v>1</v>
       </c>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="n">
         <v>1</v>
       </c>
       <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="n">
         <v>1</v>
       </c>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
-      <c r="AW56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4674,65 +4352,71 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
         <v>1</v>
       </c>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
+      <c r="AA57" t="n">
+        <v>1</v>
+      </c>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
-      <c r="AC57" t="inlineStr"/>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
       <c r="AD57" t="n">
         <v>1</v>
       </c>
-      <c r="AE57" t="inlineStr"/>
+      <c r="AE57" t="n">
+        <v>1</v>
+      </c>
       <c r="AF57" t="n">
         <v>1</v>
       </c>
       <c r="AG57" t="n">
         <v>1</v>
       </c>
-      <c r="AH57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="n">
         <v>1</v>
@@ -4741,29 +4425,31 @@
         <v>1</v>
       </c>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>1</v>
+      </c>
       <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
+      <c r="AO57" t="n">
+        <v>1</v>
+      </c>
       <c r="AP57" t="n">
         <v>1</v>
       </c>
-      <c r="AQ57" t="inlineStr"/>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
       <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4813,7 +4499,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -4828,7 +4514,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -4839,62 +4525,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4903,22 +4589,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -4933,28 +4619,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4963,48 +4649,48 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5014,16 +4700,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -5034,11 +4720,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -5053,13 +4739,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5068,7 +4754,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -5079,11 +4765,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -5098,7 +4784,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -5109,11 +4795,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -5124,11 +4810,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -5139,17 +4825,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5158,58 +4844,58 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5218,58 +4904,58 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5278,28 +4964,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5308,73 +4994,73 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5383,28 +5069,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5413,13 +5099,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5428,13 +5114,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5443,43 +5129,43 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5488,13 +5174,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5503,58 +5189,58 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5563,28 +5249,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5593,13 +5279,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5608,28 +5294,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5638,7 +5324,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5689,7 +5375,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1739262546940945</v>
+        <v>0.001669278257903223</v>
       </c>
     </row>
     <row r="3">
@@ -5700,11 +5386,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03273280734799675</v>
+        <v>0.03433497053567462</v>
       </c>
     </row>
     <row r="4">
@@ -5715,17 +5401,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9383129339577156</v>
+        <v>0.3346129449298963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5734,13 +5420,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9872256432110054</v>
+        <v>0.04180615611752939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5749,13 +5435,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9723486553632843</v>
+        <v>0.6121008402553735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5764,13 +5450,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.005025040243071455</v>
+        <v>0.428796393306039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5779,22 +5465,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2525575493500693</v>
+        <v>0.01055769562086783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01163505418482015</v>
+        <v>0.7705697529267622</v>
       </c>
     </row>
     <row r="10">
@@ -5805,32 +5491,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01129613169560464</v>
+        <v>0.9761647129870542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9502427420977708</v>
+        <v>0.03806326540340028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5839,28 +5525,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9755481467009065</v>
+        <v>0.6249712957492559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7799287459662891</v>
+        <v>0.01942014082920265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5869,13 +5555,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9933541696480622</v>
+        <v>0.1554451776632293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5884,13 +5570,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7929201880111696</v>
+        <v>0.9975834774069058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5899,7 +5585,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04562982438593893</v>
+        <v>0.8707209941938265</v>
       </c>
     </row>
     <row r="17">
@@ -5910,11 +5596,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.25330031748353</v>
+        <v>0.9751583291015062</v>
       </c>
     </row>
     <row r="18">
@@ -5929,13 +5615,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03934120707309727</v>
+        <v>0.01254142735569583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5944,7 +5630,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9828756313558265</v>
+        <v>0.2190426865815767</v>
       </c>
     </row>
     <row r="20">
@@ -5955,11 +5641,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02378530013434013</v>
+        <v>0.9891323528543644</v>
       </c>
     </row>
     <row r="21">
@@ -5974,7 +5660,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.987067739405081</v>
+        <v>0.4302449876341235</v>
       </c>
     </row>
     <row r="22">
@@ -5989,7 +5675,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9942976950422375</v>
+        <v>0.9572153748301957</v>
       </c>
     </row>
     <row r="23">
@@ -6000,11 +5686,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.994813116664234</v>
+        <v>0.9918256375280168</v>
       </c>
     </row>
     <row r="24">
@@ -6019,13 +5705,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9908242665376036</v>
+        <v>0.07754694821500244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6034,28 +5720,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.00327516925333381</v>
+        <v>0.9727605554016652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.846249722864842</v>
+        <v>0.6783212260332979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6064,28 +5750,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8413883785494878</v>
+        <v>0.04703041933356785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.039431483097954</v>
+        <v>0.02893791558160345</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6094,28 +5780,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.78575506221668</v>
+        <v>0.7201447129826849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7443465900099389</v>
+        <v>0.02960055527743845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6124,28 +5810,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9845290553497111</v>
+        <v>0.02745768136999403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2321772829655587</v>
+        <v>0.04180746319845708</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6154,13 +5840,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2685942935733999</v>
+        <v>0.04050244163236152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6169,13 +5855,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.03629372611451459</v>
+        <v>0.04433977055171768</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6184,13 +5870,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8012897640237204</v>
+        <v>0.783962944352197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6199,13 +5885,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1154626689772347</v>
+        <v>0.8192037419464133</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6214,28 +5900,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004585546953706244</v>
+        <v>0.0448325292731737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5141419918991585</v>
+        <v>0.9975859971764299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6244,28 +5930,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2064687213894195</v>
+        <v>0.03394936928566396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6228750923657159</v>
+        <v>0.9943290290229261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6274,13 +5960,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7488821346771739</v>
+        <v>0.01847276771758291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6289,13 +5975,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.06872135855814056</v>
+        <v>0.002032226254920777</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6304,13 +5990,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.845572257052045</v>
+        <v>0.3337832599522001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6319,43 +6005,43 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9906095983106419</v>
+        <v>0.9700023382978712</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8382947911281097</v>
+        <v>0.04295628054670644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0924633653319151</v>
+        <v>0.9865871527751168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6364,28 +6050,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.04628794810295572</v>
+        <v>0.7845749178122212</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7539218445627579</v>
+        <v>0.9588594675745372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6394,28 +6080,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.03460207263813741</v>
+        <v>0.9919062287663293</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.781913704271967</v>
+        <v>0.000554852142189649</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6424,7 +6110,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01456644380586393</v>
+        <v>0.9769673085919076</v>
       </c>
     </row>
   </sheetData>
